--- a/clases/clase_05/df_preguntas_duplas.xlsx
+++ b/clases/clase_05/df_preguntas_duplas.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Desktop\PRODUCCION\00. ACCIÓN PROXIMA\03. CUANTI\Curso Cuanti 1\02. Curso\Curso 2024 - 2 semestre\GitHub\metodoscuanti1\clases\clase_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7595356-15E0-4B59-BB8D-A981DC3D3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645C575-DAC1-4B44-A9DA-9D7F492BC433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8348" windowWidth="22500" windowHeight="6045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>Dupla</t>
   </si>
@@ -28,48 +28,21 @@
     <t>Pregunta_1</t>
   </si>
   <si>
-    <t>Exp_1</t>
-  </si>
-  <si>
-    <t>Eg_1</t>
-  </si>
-  <si>
     <t>Leng_1</t>
   </si>
   <si>
     <t>Pregunta_2</t>
   </si>
   <si>
-    <t>Exp_2</t>
-  </si>
-  <si>
-    <t>Eg_2</t>
-  </si>
-  <si>
     <t>Leng_2</t>
   </si>
   <si>
     <t>Pregunta_3</t>
   </si>
   <si>
-    <t>Exp_3</t>
-  </si>
-  <si>
-    <t>Eg_3</t>
-  </si>
-  <si>
-    <t>Leng_3</t>
-  </si>
-  <si>
     <t>Pregunta_4</t>
   </si>
   <si>
-    <t>Exp_4</t>
-  </si>
-  <si>
-    <t>Eg_4</t>
-  </si>
-  <si>
     <t>Leng_4</t>
   </si>
   <si>
@@ -140,13 +113,145 @@
   </si>
   <si>
     <t>Nombre2</t>
+  </si>
+  <si>
+    <t>Francisca Araya</t>
+  </si>
+  <si>
+    <t>Isidora La Rivera</t>
+  </si>
+  <si>
+    <t>Antonia Bustamante</t>
+  </si>
+  <si>
+    <t>Juan Kiessling</t>
+  </si>
+  <si>
+    <t>ninon lagos</t>
+  </si>
+  <si>
+    <t>emilia fis</t>
+  </si>
+  <si>
+    <t>Martina Muñoz</t>
+  </si>
+  <si>
+    <t>Cristina Sarró</t>
+  </si>
+  <si>
+    <t>Benjamín Valle</t>
+  </si>
+  <si>
+    <t>Carla González</t>
+  </si>
+  <si>
+    <t>Lukas Llanos</t>
+  </si>
+  <si>
+    <t>Constanza Gamboa</t>
+  </si>
+  <si>
+    <t>Javier Díaz</t>
+  </si>
+  <si>
+    <t>Antonia Sobarzo</t>
+  </si>
+  <si>
+    <t>Belén Huincache</t>
+  </si>
+  <si>
+    <t>Valeria Verdugo</t>
+  </si>
+  <si>
+    <t>Nazareth Salazar</t>
+  </si>
+  <si>
+    <t>Carla Jorquera</t>
+  </si>
+  <si>
+    <t>Catalina Allende</t>
+  </si>
+  <si>
+    <t>Llacolén Huineo</t>
+  </si>
+  <si>
+    <t>Ricardo Salazar</t>
+  </si>
+  <si>
+    <t>Antonia Leiva</t>
+  </si>
+  <si>
+    <t>Catalina Castro</t>
+  </si>
+  <si>
+    <t>Josefina Nuñez</t>
+  </si>
+  <si>
+    <t>Jonathan Mancilla</t>
+  </si>
+  <si>
+    <t>Raphael Campos</t>
+  </si>
+  <si>
+    <t>Daniela Farias Navarro</t>
+  </si>
+  <si>
+    <t>Tomás Catejo (Lux)</t>
+  </si>
+  <si>
+    <t>Alan Sanchez</t>
+  </si>
+  <si>
+    <t>Camila Navarro</t>
+  </si>
+  <si>
+    <t>Explicación_1</t>
+  </si>
+  <si>
+    <t>Ejemplo_1</t>
+  </si>
+  <si>
+    <t>Explicación_2</t>
+  </si>
+  <si>
+    <t>Ejemplo_2</t>
+  </si>
+  <si>
+    <t>Explicación_3</t>
+  </si>
+  <si>
+    <t>Ejemplo_3</t>
+  </si>
+  <si>
+    <t>Lenguaje_3</t>
+  </si>
+  <si>
+    <t>Ejemplo_4</t>
+  </si>
+  <si>
+    <t>Explicación_4</t>
+  </si>
+  <si>
+    <t>Guillermo Reyes</t>
+  </si>
+  <si>
+    <t>Vicente Valenzuela</t>
+  </si>
+  <si>
+    <t>Javiera Duran</t>
+  </si>
+  <si>
+    <t>Amelia Ramos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,13 +259,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,8 +292,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,1131 +596,1320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
       </c>
       <c r="L2">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
+      <c r="M2">
+        <v>3.5</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
       </c>
       <c r="P2">
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1">
+        <f>AVERAGE(E2,I2,M2)</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
       </c>
       <c r="H3">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
       <c r="L3">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
       </c>
       <c r="P3">
         <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T21" si="0">AVERAGE(E3,I3,M3)</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="E4">
+        <v>5.5</v>
+      </c>
+      <c r="F4">
+        <v>5.5</v>
+      </c>
+      <c r="G4">
+        <v>5.5</v>
       </c>
       <c r="H4">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
+      <c r="I4">
+        <v>5.5</v>
+      </c>
+      <c r="J4">
+        <v>5.5</v>
+      </c>
+      <c r="K4">
+        <v>5.5</v>
       </c>
       <c r="L4">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>5.5</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
       </c>
       <c r="P4">
         <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
+      <c r="I5">
+        <v>5.5</v>
+      </c>
+      <c r="J5">
+        <v>5.5</v>
+      </c>
+      <c r="K5">
+        <v>5.5</v>
       </c>
       <c r="L5">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
       </c>
       <c r="P5">
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="E6">
+        <v>5.5</v>
+      </c>
+      <c r="F6">
+        <v>5.5</v>
+      </c>
+      <c r="G6">
+        <v>5.5</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
       </c>
       <c r="L6">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
+      <c r="M6">
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <v>5.5</v>
+      </c>
+      <c r="O6">
+        <v>5.5</v>
       </c>
       <c r="P6">
         <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2">
         <v>23</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="Q7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
       </c>
       <c r="L8">
         <v>16</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
       </c>
       <c r="P8">
         <v>27</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
+      <c r="I9">
+        <v>4.5</v>
+      </c>
+      <c r="J9">
+        <v>4.5</v>
+      </c>
+      <c r="K9">
+        <v>4.5</v>
       </c>
       <c r="L9">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
       </c>
       <c r="P9">
         <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
       </c>
       <c r="H10">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
       </c>
       <c r="L10">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
       </c>
       <c r="P10">
         <v>26</v>
       </c>
       <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="R10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>27</v>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
       </c>
       <c r="L11">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>18</v>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
       </c>
       <c r="P11">
         <v>23</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
       </c>
       <c r="L12">
         <v>18</v>
       </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
       </c>
       <c r="P12">
         <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
+      <c r="E13">
+        <v>5.5</v>
+      </c>
+      <c r="F13">
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <v>5.5</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
+      <c r="I13">
+        <v>3.5</v>
+      </c>
+      <c r="J13">
+        <v>3.5</v>
+      </c>
+      <c r="K13">
+        <v>3.5</v>
       </c>
       <c r="L13">
         <v>19</v>
       </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
       </c>
       <c r="P13">
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
       </c>
       <c r="H14">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
       </c>
       <c r="L14">
         <v>18</v>
       </c>
-      <c r="M14" t="s">
-        <v>18</v>
+      <c r="M14">
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>26</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
       <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
       </c>
       <c r="L15">
         <v>15</v>
       </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
+      <c r="M15">
+        <v>3.5</v>
+      </c>
+      <c r="N15">
+        <v>3.5</v>
+      </c>
+      <c r="O15">
+        <v>3.5</v>
       </c>
       <c r="P15">
         <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
       </c>
       <c r="H16">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
+      <c r="I16">
+        <v>4.5</v>
+      </c>
+      <c r="J16">
+        <v>4.5</v>
+      </c>
+      <c r="K16">
+        <v>4.5</v>
       </c>
       <c r="L16">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
       </c>
       <c r="P16">
         <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
       </c>
       <c r="L17">
         <v>22</v>
       </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>18</v>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
       </c>
       <c r="P17">
         <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>18</v>
+      <c r="E18">
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
-        <v>18</v>
+      <c r="I18">
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>19</v>
       </c>
-      <c r="M18" t="s">
-        <v>18</v>
+      <c r="M18">
+        <v>4.5</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P18">
         <v>27</v>
       </c>
       <c r="Q18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <v>4.5</v>
+      </c>
+      <c r="G19">
+        <v>4.5</v>
       </c>
       <c r="H19">
         <v>11</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
+      <c r="I19">
+        <v>5.5</v>
+      </c>
+      <c r="J19">
+        <v>5.5</v>
+      </c>
+      <c r="K19">
+        <v>5.5</v>
       </c>
       <c r="L19">
         <v>19</v>
       </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
       </c>
       <c r="P19">
         <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="T20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L21">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P21">
         <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S21" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="T21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/clases/clase_05/df_preguntas_duplas.xlsx
+++ b/clases/clase_05/df_preguntas_duplas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Desktop\PRODUCCION\00. ACCIÓN PROXIMA\03. CUANTI\Curso Cuanti 1\02. Curso\Curso 2024 - 2 semestre\GitHub\metodoscuanti1\clases\clase_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645C575-DAC1-4B44-A9DA-9D7F492BC433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B64BB-EC97-4196-B051-817AD3AE2593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8348" windowWidth="22500" windowHeight="6045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="22500" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
   <si>
     <t>Dupla</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Amelia Ramos</t>
+  </si>
+  <si>
+    <t>Javier Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amilcar </t>
   </si>
 </sst>
 </file>
@@ -596,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1912,6 +1918,57 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="4">
+        <f>AVERAGE(D26:L26)</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>5.5</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="T27" s="1">
+        <f>AVERAGE(D27:L27)</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
